--- a/sites/all/modules/reports/reports_drivers/blank_2.xlsx
+++ b/sites/all/modules/reports/reports_drivers/blank_2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\sites\aero\sites\all\modules\reports\reports_drivers\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="210" yWindow="570" windowWidth="28455" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="stat" sheetId="1" r:id="rId1"/>
@@ -67,6 +72,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -366,11 +374,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
     <col min="9" max="9" width="22.7109375" customWidth="1"/>
